--- a/Daisy-xls/ResearchPages/research-uterine-cancer.xlsx
+++ b/Daisy-xls/ResearchPages/research-uterine-cancer.xlsx
@@ -507,7 +507,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
